--- a/src/main/resources/fileTemplate/templatePhieuGiaoHang.xlsx
+++ b/src/main/resources/fileTemplate/templatePhieuGiaoHang.xlsx
@@ -84,12 +84,106 @@
     <t>STT</t>
   </si>
   <si>
+    <t>${item.receiptCode}</t>
+  </si>
+  <si>
+    <t>${item.tenNguoiGui}</t>
+  </si>
+  <si>
+    <t>${item.tenNguoiNhan}</t>
+  </si>
+  <si>
+    <t>${item.note}</t>
+  </si>
+  <si>
+    <t>&lt;/jt:forEach&gt;</t>
+  </si>
+  <si>
+    <t>TỔNG CỘNG (KIỆN):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tổng số tiền phải thu: </t>
+  </si>
+  <si>
+    <t>PHIẾU GIAO HÀNG</t>
+  </si>
+  <si>
+    <t>${vtPhieuGiaoHang.tongTien}</t>
+  </si>
+  <si>
+    <t>${vtPhieuGiaoHang.soLuong}</t>
+  </si>
+  <si>
+    <t>${item.soLuong}</t>
+  </si>
+  <si>
+    <t>${item.tongTien}</t>
+  </si>
+  <si>
+    <t>${item.mobileNguoiNhan} - ${item.diaChiNguoiNhan}</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nhà xe: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>${vtPhieuGiaoHang.nhaXe}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Loại xe: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>${vtPhieuGiaoHang.loaiXe}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Biển số xe: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>${vtPhieuGiaoHang.bienSo}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ngày chạy: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>${strGenDate}</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Ngày: </t>
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
@@ -99,54 +193,11 @@
     </r>
   </si>
   <si>
-    <t>${item.receiptCode}</t>
-  </si>
-  <si>
-    <t>${item.tenNguoiGui}</t>
-  </si>
-  <si>
-    <t>${item.tenNguoiNhan}</t>
-  </si>
-  <si>
-    <t>${item.note}</t>
-  </si>
-  <si>
-    <t>&lt;/jt:forEach&gt;</t>
-  </si>
-  <si>
-    <t>TỔNG CỘNG (KIỆN):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tổng số tiền phải thu: </t>
-  </si>
-  <si>
-    <t>Ngày chạy: ${strGenDate}</t>
-  </si>
-  <si>
-    <t>PHIẾU GIAO HÀNG</t>
-  </si>
-  <si>
-    <t>Nhà xe: ${vtPhieuGiaoHang.nhaXe}</t>
-  </si>
-  <si>
-    <t>Loại xe: ${vtPhieuGiaoHang.loaiXe}</t>
-  </si>
-  <si>
-    <t>Biển số xe: ${vtPhieuGiaoHang.bienSo}</t>
-  </si>
-  <si>
-    <t>${vtPhieuGiaoHang.tongTien}</t>
-  </si>
-  <si>
-    <t>${vtPhieuGiaoHang.soLuong}</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Số: </t>
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
@@ -154,15 +205,6 @@
       </rPr>
       <t>${vtPhieuGiaoHang.maPhieuGiao}</t>
     </r>
-  </si>
-  <si>
-    <t>${item.soLuong}</t>
-  </si>
-  <si>
-    <t>${item.tongTien}</t>
-  </si>
-  <si>
-    <t>${item.mobileNguoiNhan} - ${item.diaChiNguoiNhan}</t>
   </si>
 </sst>
 </file>
@@ -212,13 +254,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -244,6 +279,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -295,15 +336,15 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -321,28 +362,19 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -354,10 +386,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -366,6 +395,21 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -700,7 +744,7 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,47 +765,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="21"/>
+      <c r="B1" s="18"/>
       <c r="C1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="21"/>
-      <c r="F1" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="18"/>
+      <c r="F1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
     </row>
     <row r="2" spans="1:17" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="21"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="21"/>
-      <c r="F2" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="F2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
     </row>
     <row r="3" spans="1:17" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
     </row>
     <row r="4" spans="1:17" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="F4" s="3"/>
@@ -773,15 +817,15 @@
       <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:17" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="F5" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
+      <c r="F5" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
     </row>
     <row r="6" spans="1:17" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="3"/>
@@ -791,26 +835,26 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:17" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="19"/>
-      <c r="B7" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="27"/>
-      <c r="H7" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="20"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="23"/>
+      <c r="H7" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="17"/>
       <c r="M7" s="3"/>
     </row>
     <row r="8" spans="1:17" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -857,37 +901,37 @@
       </c>
     </row>
     <row r="10" spans="1:17" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="D10" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="E10" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="K10" s="16" t="s">
+      <c r="L10" s="26" t="s">
         <v>25</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:17" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -898,23 +942,23 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
     </row>
-    <row r="12" spans="1:17" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="18" t="s">
+    <row r="12" spans="1:17" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
       <c r="J12" s="25" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K12" s="6" t="s">
         <v>17</v>
@@ -922,7 +966,7 @@
       <c r="L12" s="6"/>
     </row>
     <row r="13" spans="1:17" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="B13" s="12"/>
+      <c r="B13" s="11"/>
     </row>
     <row r="14" spans="1:17" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B14" s="8"/>

--- a/src/main/resources/fileTemplate/templatePhieuGiaoHang.xlsx
+++ b/src/main/resources/fileTemplate/templatePhieuGiaoHang.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Ghi chú</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Số HĐ</t>
   </si>
   <si>
-    <t>GTN</t>
-  </si>
-  <si>
     <t>Số tiền phải thu</t>
   </si>
   <si>
@@ -115,9 +112,6 @@
   </si>
   <si>
     <t>${item.soLuong}</t>
-  </si>
-  <si>
-    <t>${item.tongTien}</t>
   </si>
   <si>
     <t>${item.mobileNguoiNhan} - ${item.diaChiNguoiNhan}</t>
@@ -205,6 +199,18 @@
       </rPr>
       <t>${vtPhieuGiaoHang.maPhieuGiao}</t>
     </r>
+  </si>
+  <si>
+    <t>${item.soHopDong}</t>
+  </si>
+  <si>
+    <t>${item.maPhieuThu}</t>
+  </si>
+  <si>
+    <t>${item.soTienPhaiThu}</t>
+  </si>
+  <si>
+    <t>Phiếu thu số</t>
   </si>
 </sst>
 </file>
@@ -338,7 +344,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -387,6 +393,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -395,21 +413,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -744,7 +747,7 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,7 +756,7 @@
     <col min="2" max="4" width="17.42578125" customWidth="1"/>
     <col min="5" max="5" width="29.28515625" customWidth="1"/>
     <col min="6" max="6" width="24.85546875" customWidth="1"/>
-    <col min="7" max="9" width="7.7109375" customWidth="1"/>
+    <col min="7" max="9" width="11.7109375" customWidth="1"/>
     <col min="10" max="10" width="17.42578125" customWidth="1"/>
     <col min="11" max="11" width="17.85546875" customWidth="1"/>
     <col min="12" max="12" width="15.5703125" customWidth="1"/>
@@ -767,7 +770,7 @@
     <row r="1" spans="1:17" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="18"/>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D1" s="18"/>
       <c r="F1" s="18" t="s">
@@ -783,7 +786,7 @@
     <row r="2" spans="1:17" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="18"/>
       <c r="C2" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D2" s="18"/>
       <c r="F2" s="19" t="s">
@@ -818,7 +821,7 @@
     </row>
     <row r="5" spans="1:17" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="F5" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
@@ -836,24 +839,24 @@
     </row>
     <row r="7" spans="1:17" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16"/>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23" t="s">
+      <c r="G7" s="27"/>
+      <c r="H7" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
       <c r="L7" s="17"/>
       <c r="M7" s="3"/>
     </row>
@@ -864,7 +867,7 @@
     </row>
     <row r="9" spans="1:17" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>6</v>
@@ -888,55 +891,59 @@
         <v>12</v>
       </c>
       <c r="I9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="10" t="s">
         <v>13</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>14</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>0</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="D10" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="E10" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="27" t="s">
+      <c r="L10" s="23" t="s">
         <v>24</v>
-      </c>
-      <c r="L10" s="26" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="D11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O11" s="7"/>
       <c r="P11" s="3"/>
@@ -944,24 +951,24 @@
     </row>
     <row r="12" spans="1:17" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="13"/>
-      <c r="F12" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="25" t="s">
-        <v>29</v>
+      <c r="F12" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L12" s="6"/>
     </row>
@@ -972,13 +979,13 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>

--- a/src/main/resources/fileTemplate/templatePhieuGiaoHang.xlsx
+++ b/src/main/resources/fileTemplate/templatePhieuGiaoHang.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Ghi chú</t>
   </si>
@@ -60,18 +60,12 @@
     <t>Số HĐ</t>
   </si>
   <si>
-    <t>Số tiền phải thu</t>
-  </si>
-  <si>
     <t>Ký nhận</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>đ</t>
-  </si>
-  <si>
     <t>Người giao</t>
   </si>
   <si>
@@ -99,13 +93,7 @@
     <t>TỔNG CỘNG (KIỆN):</t>
   </si>
   <si>
-    <t xml:space="preserve">Tổng số tiền phải thu: </t>
-  </si>
-  <si>
     <t>PHIẾU GIAO HÀNG</t>
-  </si>
-  <si>
-    <t>${vtPhieuGiaoHang.tongTien}</t>
   </si>
   <si>
     <t>${vtPhieuGiaoHang.soLuong}</t>
@@ -211,6 +199,9 @@
   </si>
   <si>
     <t>Phiếu thu số</t>
+  </si>
+  <si>
+    <t>Hình thức thanh toán</t>
   </si>
 </sst>
 </file>
@@ -747,7 +738,7 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,7 +748,7 @@
     <col min="5" max="5" width="29.28515625" customWidth="1"/>
     <col min="6" max="6" width="24.85546875" customWidth="1"/>
     <col min="7" max="9" width="11.7109375" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" customWidth="1"/>
     <col min="11" max="11" width="17.85546875" customWidth="1"/>
     <col min="12" max="12" width="15.5703125" customWidth="1"/>
     <col min="13" max="13" width="13.5703125" customWidth="1"/>
@@ -770,7 +761,7 @@
     <row r="1" spans="1:17" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="18"/>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D1" s="18"/>
       <c r="F1" s="18" t="s">
@@ -786,7 +777,7 @@
     <row r="2" spans="1:17" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="18"/>
       <c r="C2" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D2" s="18"/>
       <c r="F2" s="19" t="s">
@@ -821,7 +812,7 @@
     </row>
     <row r="5" spans="1:17" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="F5" s="21" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
@@ -840,19 +831,19 @@
     <row r="7" spans="1:17" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16"/>
       <c r="B7" s="27" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C7" s="27"/>
       <c r="D7" s="27" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E7" s="27"/>
       <c r="F7" s="27" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G7" s="27"/>
       <c r="H7" s="28" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I7" s="28"/>
       <c r="J7" s="28"/>
@@ -867,7 +858,7 @@
     </row>
     <row r="9" spans="1:17" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>6</v>
@@ -891,16 +882,16 @@
         <v>12</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>0</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -908,42 +899,42 @@
         <v>1</v>
       </c>
       <c r="B10" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>22</v>
-      </c>
       <c r="E10" s="24" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F10" s="24" t="s">
         <v>2</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J10" s="25" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K10" s="24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L10" s="23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:17" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="D11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O11" s="7"/>
       <c r="P11" s="3"/>
@@ -951,25 +942,19 @@
     </row>
     <row r="12" spans="1:17" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>29</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="13"/>
-      <c r="F12" s="26" t="s">
-        <v>26</v>
-      </c>
+      <c r="F12" s="26"/>
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
       <c r="I12" s="26"/>
-      <c r="J12" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="J12" s="22"/>
+      <c r="K12" s="6"/>
       <c r="L12" s="6"/>
     </row>
     <row r="13" spans="1:17" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -979,13 +964,13 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>

--- a/src/main/resources/fileTemplate/templatePhieuGiaoHang.xlsx
+++ b/src/main/resources/fileTemplate/templatePhieuGiaoHang.xlsx
@@ -387,23 +387,23 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -738,16 +738,18 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.5703125" customWidth="1"/>
-    <col min="2" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="29.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="4" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="41.7109375" customWidth="1"/>
     <col min="6" max="6" width="24.85546875" customWidth="1"/>
-    <col min="7" max="9" width="11.7109375" customWidth="1"/>
+    <col min="7" max="8" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" customWidth="1"/>
     <col min="10" max="10" width="21.85546875" customWidth="1"/>
     <col min="11" max="11" width="17.85546875" customWidth="1"/>
     <col min="12" max="12" width="15.5703125" customWidth="1"/>
@@ -830,24 +832,24 @@
     </row>
     <row r="7" spans="1:17" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16"/>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27" t="s">
+      <c r="C7" s="24"/>
+      <c r="D7" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27" t="s">
+      <c r="E7" s="24"/>
+      <c r="F7" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="27"/>
-      <c r="H7" s="28" t="s">
+      <c r="G7" s="24"/>
+      <c r="H7" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
       <c r="L7" s="17"/>
       <c r="M7" s="3"/>
     </row>
@@ -895,40 +897,40 @@
       </c>
     </row>
     <row r="10" spans="1:17" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="25" t="s">
+      <c r="H10" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="25" t="s">
+      <c r="I10" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="J10" s="25" t="s">
+      <c r="J10" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="K10" s="24" t="s">
+      <c r="K10" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="23" t="s">
+      <c r="L10" s="26" t="s">
         <v>22</v>
       </c>
     </row>
@@ -949,10 +951,10 @@
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="13"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
       <c r="J12" s="22"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>

--- a/src/main/resources/fileTemplate/templatePhieuGiaoHang.xlsx
+++ b/src/main/resources/fileTemplate/templatePhieuGiaoHang.xlsx
@@ -335,7 +335,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -354,56 +354,56 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -433,8 +433,8 @@
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>604389</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>42414</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>151340</xdr:rowOff>
     </xdr:to>
@@ -738,21 +738,22 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="4" width="24.5703125" customWidth="1"/>
-    <col min="5" max="5" width="41.7109375" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" customWidth="1"/>
-    <col min="7" max="8" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" customWidth="1"/>
-    <col min="10" max="10" width="21.85546875" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" customWidth="1"/>
+    <col min="3" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" customWidth="1"/>
     <col min="13" max="13" width="13.5703125" customWidth="1"/>
     <col min="14" max="14" width="24.85546875" customWidth="1"/>
     <col min="15" max="15" width="13.42578125" customWidth="1"/>
@@ -761,47 +762,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="18"/>
+      <c r="B1" s="14"/>
       <c r="C1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="F1" s="18" t="s">
+      <c r="D1" s="14"/>
+      <c r="F1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
     </row>
     <row r="2" spans="1:17" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="18"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="F2" s="19" t="s">
+      <c r="D2" s="14"/>
+      <c r="F2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
     </row>
     <row r="3" spans="1:17" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
     </row>
     <row r="4" spans="1:17" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="F4" s="3"/>
@@ -813,9 +814,13 @@
       <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:17" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="F5" s="21" t="s">
+      <c r="B5" s="21" t="s">
         <v>24</v>
       </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
@@ -830,27 +835,27 @@
       <c r="E6" s="3"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:17" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="16"/>
-      <c r="B7" s="24" t="s">
+    <row r="7" spans="1:17" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A7" s="12"/>
+      <c r="B7" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24" t="s">
+      <c r="C7" s="25"/>
+      <c r="D7" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24" t="s">
+      <c r="E7" s="25"/>
+      <c r="F7" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="25" t="s">
+      <c r="G7" s="25"/>
+      <c r="H7" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="17"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="13"/>
       <c r="M7" s="3"/>
     </row>
     <row r="8" spans="1:17" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -858,7 +863,7 @@
       <c r="H8" s="8"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:17" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>17</v>
       </c>
@@ -886,7 +891,7 @@
       <c r="I9" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="9" t="s">
         <v>38</v>
       </c>
       <c r="K9" s="9" t="s">
@@ -896,41 +901,41 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="26" t="s">
+    <row r="10" spans="1:17" s="2" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="28" t="s">
+      <c r="H10" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="28" t="s">
+      <c r="I10" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="J10" s="28" t="s">
+      <c r="J10" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="K10" s="27" t="s">
+      <c r="K10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="26" t="s">
+      <c r="L10" s="18" t="s">
         <v>22</v>
       </c>
     </row>
@@ -942,25 +947,25 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
     </row>
-    <row r="12" spans="1:17" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="15" t="s">
+    <row r="12" spans="1:17" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="23"/>
+      <c r="D12" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="17"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
     </row>
     <row r="13" spans="1:17" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="B13" s="11"/>
+      <c r="B13" s="10"/>
     </row>
     <row r="14" spans="1:17" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B14" s="8"/>
@@ -978,7 +983,10 @@
       <c r="L14" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
@@ -986,7 +994,7 @@
     <mergeCell ref="B7:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="80" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>